--- a/ORG_LINE.xlsx
+++ b/ORG_LINE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A55885-09C4-4FC0-9AF0-FD9802FB800E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A76681-6D90-4861-B8E8-66E14EA991BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>ORG_LINE_PK</t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t>สตบ.1</t>
+  </si>
+  <si>
+    <t>ORG_LINE_IDENOLD</t>
+  </si>
+  <si>
+    <t>ORG_LINE_IDENNEW</t>
+  </si>
+  <si>
+    <t>ORG_LINE_STATUS</t>
   </si>
 </sst>
 </file>
@@ -379,18 +388,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="30.54296875" customWidth="1"/>
+    <col min="1" max="11" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,8 +409,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>40501</v>
       </c>
@@ -412,7 +430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40502</v>
       </c>
@@ -423,7 +441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40503</v>
       </c>
@@ -434,7 +452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40504</v>
       </c>
@@ -445,7 +463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40505</v>
       </c>
@@ -456,7 +474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40506</v>
       </c>
